--- a/TA Screener_2/StoryBoard/Group 8 StoryBoard.xlsx
+++ b/TA Screener_2/StoryBoard/Group 8 StoryBoard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BBINDHU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unimeesh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE09B47-5843-4F25-8F91-5C12262F1538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEB2899-11B6-4B18-96F2-A8DF3CA34765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{92B67F1D-6D2C-4D6D-9B09-53ABBE794F3A}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>1.Difficult to make case diagram</t>
   </si>
   <si>
-    <t>2.Created Create() and Update()</t>
-  </si>
-  <si>
     <t>1.Gained some coding idea from internet and implemented</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>1.Understood the design documentation how to make properly</t>
   </si>
   <si>
-    <t>1.Created Append() and Delete()</t>
-  </si>
-  <si>
     <t>2.Created MakeFile</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>1.Made Documentation</t>
   </si>
   <si>
-    <t>1.Created Heikin Function</t>
-  </si>
-  <si>
     <t>2.Perforned Splint Testing</t>
   </si>
   <si>
@@ -133,6 +124,15 @@
   </si>
   <si>
     <t>UT_IT</t>
+  </si>
+  <si>
+    <t>1.linkedlist</t>
+  </si>
+  <si>
+    <t>2. linkedlist</t>
+  </si>
+  <si>
+    <t>1.Created linkedlist</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,10 +535,10 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -555,13 +555,13 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -572,16 +572,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -589,36 +589,36 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
